--- a/src/com/ray/LintCode/util/temp.xlsx
+++ b/src/com/ray/LintCode/util/temp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F4AC48-F80F-4C50-9CF0-0E8405F44BE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5617140-7C12-4B38-95A9-BBB68640490A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,26 +36,6 @@
   </si>
   <si>
     <t>总数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2820,68 +2800,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="T9:Z17"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="4.58203125" style="1"/>
   </cols>
-  <sheetData>
-    <row r="9" spans="20:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="20:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="20:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="20:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="V13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="20:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="T14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="20:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="V16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="24:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="X17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/com/ray/LintCode/util/temp.xlsx
+++ b/src/com/ray/LintCode/util/temp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5617140-7C12-4B38-95A9-BBB68640490A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CD4BD-6C3B-4577-9E9F-66F62B542218}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2803,7 +2803,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.3"/>
